--- a/006 - User Story Map - sliced.xlsx
+++ b/006 - User Story Map - sliced.xlsx
@@ -648,7 +648,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,6 +754,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,10 +852,10 @@
   <dimension ref="A2:AJ48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG39" activeCellId="1" sqref="9:10 AG39"/>
+      <selection pane="topLeft" activeCell="AG39" activeCellId="0" sqref="AG39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.89"/>
@@ -894,7 +898,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="2.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="2.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="42" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="42" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1685,10 +1689,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="9:10"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -1913,55 +1917,55 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" s="24" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+    <row r="10" s="25" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2232,7 +2236,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="28" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -2284,7 +2288,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="28" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -2388,7 +2392,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="29" t="s">
         <v>106</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2414,7 +2418,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="28" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2440,7 +2444,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="28" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -2466,7 +2470,7 @@
       <c r="F30" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="28" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -2518,7 +2522,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="28" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -2544,7 +2548,7 @@
       <c r="F33" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="28" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
